--- a/price_history.xlsx
+++ b/price_history.xlsx
@@ -7,7 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Zotac Gaming RTX 3060" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Infinix Note 50x 5G+" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="DJI MIC 2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Nothing Phone (3a) - 256 GB" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,241 +456,214 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-11-16</t>
+          <t>2025-05-02</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>13:43:05</t>
+          <t>00:32:45</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>26043</v>
+        <v>25999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2024-11-16</t>
+          <t>2025-05-02</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>13:44:05</t>
+          <t>00:36:02</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>26043</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2024-11-16</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>13:45:05</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>26043</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2024-11-16</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>13:46:05</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>26043</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2024-11-16</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>14:00:05</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>26043</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2024-11-16</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>23:30:06</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>26043</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2024-11-18</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>11:39:00</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>26043</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2024-11-18</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>14:00:05</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>26043</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2024-11-19</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>23:30:06</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>26043</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2024-11-20</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>01:00:06</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>26043</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2024-11-20</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>08:19:47</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>26043</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2024-11-20</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>14:00:06</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
         <v>25999</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>2024-11-20</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>22:00:44</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>25999</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2024-11-21</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>09:42:58</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>25999</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>2024-11-21</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>23:30:06</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>25999</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>2025-01-01</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>13:30:33</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>25275</v>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-05-02</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>00:32:48</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11499</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-05-02</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>00:36:05</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11499</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-05-02</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>00:32:52</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>20900</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-05-02</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>00:36:09</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>20900</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-05-02</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>00:36:12</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>26999</v>
       </c>
     </row>
   </sheetData>

--- a/price_history.xlsx
+++ b/price_history.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,6 +480,21 @@
         </is>
       </c>
       <c r="C3" t="n">
+        <v>25999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-05-02</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>13:07:33</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>25999</v>
       </c>
     </row>
@@ -494,7 +509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,6 +561,36 @@
         </is>
       </c>
       <c r="C3" t="n">
+        <v>11499</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-05-02</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>13:07:39</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11499</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>22:27:42</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>11499</v>
       </c>
     </row>
@@ -560,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -612,6 +657,21 @@
         </is>
       </c>
       <c r="C3" t="n">
+        <v>20900</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-05-02</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>13:07:47</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>20900</v>
       </c>
     </row>
@@ -626,7 +686,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -666,6 +726,36 @@
         <v>26999</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-05-02</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>13:07:53</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>26999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>22:27:53</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>26999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
